--- a/SEED_SDET_COURSE_API_TESTING.xlsx
+++ b/SEED_SDET_COURSE_API_TESTING.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEED_PROGRAMING_SDET_COURSE\SEED_SDET_COURSE_API_TESTING\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65CD228-7ACF-4546-9B0C-7F9A943DA60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BASIC'S" sheetId="1" r:id="rId1"/>
+    <sheet name="OWN_API_TESTING" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,157 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Request Type </t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Payload </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response Paylaod </t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status  Code </t>
+  </si>
+  <si>
+    <t>API_TEST_01</t>
+  </si>
+  <si>
+    <t>API_TEST_02</t>
+  </si>
+  <si>
+    <t>API_TEST_03</t>
+  </si>
+  <si>
+    <t>API_TEST_04</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users/2</t>
+  </si>
+  <si>
+    <t>{
+    "name": "morpheus",
+    "job": "zion resident"
+}</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users</t>
+  </si>
+  <si>
+    <t>{
+    "name": "morpheus",
+    "job": "leader"
+}</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users?page=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "id": 1,
+            "email": "george.bluth@reqres.in",
+            "first_name": "George",
+            "last_name": "Bluth",
+            "avatar": "https://reqres.in/img/faces/1-image.jpg"</t>
+  </si>
+  <si>
+    <t>{
+    "name": "Ramesh",
+    "job": "leader",
+    "id": "727",
+    "createdAt": "2024-06-30T11:47:23.753Z"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "name": "Ramesh",
+    "job": "College leader",
+    "id": "727",
+    "updatedAt": "2024-06-30T11:48:45.296Z"
+}</t>
+  </si>
+  <si>
+    <t>OWN_API_TEST_01</t>
+  </si>
+  <si>
+    <t>OWN_API_TEST_02</t>
+  </si>
+  <si>
+    <t>OWN_API_TEST_03</t>
+  </si>
+  <si>
+    <t>OWN_API_TEST_04</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/employees</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "name": "Shyam",
+        "email": "shyamjaiswal@gmail.com",
+        "id": "bf30"
+    },
+    {
+        "name": "Bob",
+        "email": "bob32@gmail.com",
+        "id": "4ecd"
+    },
+    {
+        "name": "Jai",
+        "email": "jai87@gmail.com",
+        "id": "60e7"
+    }
+]</t>
+  </si>
+  <si>
+    <t>{
+        "name": "Vishwa",
+        "email": "vishwa@gmail.com"
+    }</t>
+  </si>
+  <si>
+    <t>{
+    "id": "f891",
+    "name": "Vishwa",
+    "email": "vishwa@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": "f891",
+    "name": "Vishwa Taware",
+    "email": "vishwa@gmail.com"
+}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +183,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +234,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +560,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3CF462-6D3C-41BE-9E24-FEC3E66D9DC6}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="375" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{86EDCB5C-8523-41A7-AAAF-77466D795F86}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{2F8C1653-3E96-493D-B5A3-0C0EFB81882A}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{D74CCE4A-D4F8-4BC2-A68D-8A54B20FB0E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SEED_SDET_COURSE_API_TESTING.xlsx
+++ b/SEED_SDET_COURSE_API_TESTING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEED_PROGRAMING_SDET_COURSE\SEED_SDET_COURSE_API_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65CD228-7ACF-4546-9B0C-7F9A943DA60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2755380A-5AD4-4F83-8339-037218B4AC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +202,6 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,11 +242,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,15 +265,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3CF462-6D3C-41BE-9E24-FEC3E66D9DC6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +714,7 @@
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -747,7 +734,7 @@
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -800,8 +787,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{86EDCB5C-8523-41A7-AAAF-77466D795F86}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{2F8C1653-3E96-493D-B5A3-0C0EFB81882A}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{D74CCE4A-D4F8-4BC2-A68D-8A54B20FB0E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
